--- a/Code/Results/Cases/Case_8_26/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_26/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.024132131917793</v>
+        <v>1.017581508205363</v>
       </c>
       <c r="D2">
-        <v>1.038978855554014</v>
+        <v>1.033860910128959</v>
       </c>
       <c r="E2">
-        <v>1.035817574036374</v>
+        <v>1.030548823377561</v>
       </c>
       <c r="F2">
-        <v>1.044398322102131</v>
+        <v>1.039792878651143</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.050325980287458</v>
+        <v>1.048355186626242</v>
       </c>
       <c r="J2">
-        <v>1.045614257031839</v>
+        <v>1.03924878113326</v>
       </c>
       <c r="K2">
-        <v>1.049920603321192</v>
+        <v>1.044867834342111</v>
       </c>
       <c r="L2">
-        <v>1.046799485354556</v>
+        <v>1.041598358246268</v>
       </c>
       <c r="M2">
-        <v>1.055271921638419</v>
+        <v>1.05072433373652</v>
       </c>
       <c r="N2">
-        <v>1.047099149210507</v>
+        <v>1.031603458549413</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.052316313940198</v>
+        <v>1.048717252130513</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.046368435948326</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.04280444641237</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.0236054040465</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.029454773472358</v>
+        <v>1.022034470132496</v>
       </c>
       <c r="D3">
-        <v>1.042581858347142</v>
+        <v>1.036764907214613</v>
       </c>
       <c r="E3">
-        <v>1.040049845161657</v>
+        <v>1.034044142084194</v>
       </c>
       <c r="F3">
-        <v>1.048219860964333</v>
+        <v>1.042985067168118</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.051437283643489</v>
+        <v>1.049158192209097</v>
       </c>
       <c r="J3">
-        <v>1.049173453910762</v>
+        <v>1.041941959374248</v>
       </c>
       <c r="K3">
-        <v>1.052697412849969</v>
+        <v>1.046948030235793</v>
       </c>
       <c r="L3">
-        <v>1.050194696192767</v>
+        <v>1.044259191960817</v>
       </c>
       <c r="M3">
-        <v>1.058270808457628</v>
+        <v>1.053095972580268</v>
       </c>
       <c r="N3">
-        <v>1.050663400557192</v>
+        <v>1.033113398187453</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.054689689968943</v>
+        <v>1.050594221813063</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.048329208396904</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.044272382778026</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024094463951351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.032824866240255</v>
+        <v>1.02486077123697</v>
       </c>
       <c r="D4">
-        <v>1.044865835081765</v>
+        <v>1.038610643120432</v>
       </c>
       <c r="E4">
-        <v>1.042735107640749</v>
+        <v>1.036268157273614</v>
       </c>
       <c r="F4">
-        <v>1.050646207107495</v>
+        <v>1.045017407111132</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.052129666499774</v>
+        <v>1.049657157671761</v>
       </c>
       <c r="J4">
-        <v>1.051424613607211</v>
+        <v>1.043649228087141</v>
       </c>
       <c r="K4">
-        <v>1.054451322951019</v>
+        <v>1.048264377056158</v>
       </c>
       <c r="L4">
-        <v>1.05234372955692</v>
+        <v>1.04594770906631</v>
       </c>
       <c r="M4">
-        <v>1.060169514315841</v>
+        <v>1.054601253718432</v>
       </c>
       <c r="N4">
-        <v>1.052917757158622</v>
+        <v>1.034070575188963</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.056192358031744</v>
+        <v>1.051785533578469</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.049570231828449</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.045204108553617</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024401205891404</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.034231413848471</v>
+        <v>1.026041371159812</v>
       </c>
       <c r="D5">
-        <v>1.04582204649749</v>
+        <v>1.039384606760886</v>
       </c>
       <c r="E5">
-        <v>1.043858099023768</v>
+        <v>1.037199366524843</v>
       </c>
       <c r="F5">
-        <v>1.051661231860442</v>
+        <v>1.04586863620194</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.052418165862753</v>
+        <v>1.049865091564215</v>
       </c>
       <c r="J5">
-        <v>1.052365639655114</v>
+        <v>1.044363771704759</v>
       </c>
       <c r="K5">
-        <v>1.055185647357937</v>
+        <v>1.048816559432828</v>
       </c>
       <c r="L5">
-        <v>1.053242443462838</v>
+        <v>1.046654758120283</v>
       </c>
       <c r="M5">
-        <v>1.060963716990077</v>
+        <v>1.055231746129989</v>
       </c>
       <c r="N5">
-        <v>1.05386011957145</v>
+        <v>1.034471180648807</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.056820902637499</v>
+        <v>1.052284518228385</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.050096523830507</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.045602356177047</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024530039236915</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.03447485837496</v>
+        <v>1.026245148893696</v>
       </c>
       <c r="D6">
-        <v>1.045990479374342</v>
+        <v>1.03952114648681</v>
       </c>
       <c r="E6">
-        <v>1.044053740228357</v>
+        <v>1.037361278505991</v>
       </c>
       <c r="F6">
-        <v>1.051837990415736</v>
+        <v>1.046016652155388</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.052470715126443</v>
+        <v>1.04990341337227</v>
       </c>
       <c r="J6">
-        <v>1.052531022885122</v>
+        <v>1.044489410518184</v>
       </c>
       <c r="K6">
-        <v>1.05531679407103</v>
+        <v>1.048915834322273</v>
       </c>
       <c r="L6">
-        <v>1.053400415287985</v>
+        <v>1.046779026123489</v>
       </c>
       <c r="M6">
-        <v>1.0611033872455</v>
+        <v>1.055342692336449</v>
       </c>
       <c r="N6">
-        <v>1.054025737664614</v>
+        <v>1.03454161932181</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.05693143984169</v>
+        <v>1.052372323301644</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.050197879713241</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.045682081727298</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024554168224586</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.032866098139192</v>
+        <v>1.024933916953624</v>
       </c>
       <c r="D7">
-        <v>1.044901676260808</v>
+        <v>1.038671485673278</v>
       </c>
       <c r="E7">
-        <v>1.042771291593876</v>
+        <v>1.036333703550479</v>
       </c>
       <c r="F7">
-        <v>1.050678626651887</v>
+        <v>1.045073840399463</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.052145664705131</v>
+        <v>1.049686230632225</v>
       </c>
       <c r="J7">
-        <v>1.051459081299313</v>
+        <v>1.043714757114911</v>
       </c>
       <c r="K7">
-        <v>1.054483946048519</v>
+        <v>1.048321698412805</v>
       </c>
       <c r="L7">
-        <v>1.052376682065341</v>
+        <v>1.046009669874475</v>
       </c>
       <c r="M7">
-        <v>1.060198778170533</v>
+        <v>1.054654246769379</v>
       </c>
       <c r="N7">
-        <v>1.0529522737988</v>
+        <v>1.034158935357544</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.056215517920145</v>
+        <v>1.05182747338065</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.049613147716308</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.045266566330253</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024421588592776</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.025975409566365</v>
+        <v>1.019248734664145</v>
       </c>
       <c r="D8">
-        <v>1.040235913826209</v>
+        <v>1.034974859707398</v>
       </c>
       <c r="E8">
-        <v>1.037286393336528</v>
+        <v>1.031876733148912</v>
       </c>
       <c r="F8">
-        <v>1.045723787997733</v>
+        <v>1.040994421498323</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.050722731207097</v>
+        <v>1.048696270019736</v>
       </c>
       <c r="J8">
-        <v>1.046856045392565</v>
+        <v>1.040312934217614</v>
       </c>
       <c r="K8">
-        <v>1.050897109838127</v>
+        <v>1.04570103196568</v>
       </c>
       <c r="L8">
-        <v>1.047983916122696</v>
+        <v>1.042641554964245</v>
       </c>
       <c r="M8">
-        <v>1.056318071899859</v>
+        <v>1.051646316990476</v>
       </c>
       <c r="N8">
-        <v>1.048342701053089</v>
+        <v>1.032356781205433</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.053144257988423</v>
+        <v>1.049446931504989</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.047081549142531</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.043418575704699</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023819167493474</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.013195395147613</v>
+        <v>1.008633620211153</v>
       </c>
       <c r="D9">
-        <v>1.03159455390496</v>
+        <v>1.028065453236911</v>
       </c>
       <c r="E9">
-        <v>1.027155279848481</v>
+        <v>1.023579124187471</v>
       </c>
       <c r="F9">
-        <v>1.036586453325899</v>
+        <v>1.033421421204211</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.047983633212342</v>
+        <v>1.046722527216243</v>
       </c>
       <c r="J9">
-        <v>1.038290642897161</v>
+        <v>1.033885143982387</v>
       </c>
       <c r="K9">
-        <v>1.04419501611749</v>
+        <v>1.040719026680224</v>
       </c>
       <c r="L9">
-        <v>1.039822626380269</v>
+        <v>1.036300888965287</v>
       </c>
       <c r="M9">
-        <v>1.049112574718611</v>
+        <v>1.045994571200877</v>
       </c>
       <c r="N9">
-        <v>1.039765134703676</v>
+        <v>1.028772376116848</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.047441666162897</v>
+        <v>1.044973994771125</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.042339646099518</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.039892580947979</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022633063219893</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.004362699224465</v>
+        <v>1.001538963220878</v>
       </c>
       <c r="D10">
-        <v>1.025674678874575</v>
+        <v>1.023525908178398</v>
       </c>
       <c r="E10">
-        <v>1.020223664244766</v>
+        <v>1.018127777795002</v>
       </c>
       <c r="F10">
-        <v>1.0303749187688</v>
+        <v>1.028467856488924</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.04606926353485</v>
+        <v>1.045427548807075</v>
       </c>
       <c r="J10">
-        <v>1.032404287600825</v>
+        <v>1.029691654736119</v>
       </c>
       <c r="K10">
-        <v>1.03959534256357</v>
+        <v>1.037483001231524</v>
       </c>
       <c r="L10">
-        <v>1.034237128736665</v>
+        <v>1.032177265725224</v>
       </c>
       <c r="M10">
-        <v>1.04421657909201</v>
+        <v>1.042341459179406</v>
       </c>
       <c r="N10">
-        <v>1.033870420107645</v>
+        <v>1.026653252147336</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.043617960115798</v>
+        <v>1.042134024833163</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.039104121965666</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.037622948390415</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021883372162325</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.001563200167242</v>
+        <v>0.9995074249736252</v>
       </c>
       <c r="D11">
-        <v>1.024047682641507</v>
+        <v>1.022505139883969</v>
       </c>
       <c r="E11">
-        <v>1.018313740300551</v>
+        <v>1.01687800784575</v>
       </c>
       <c r="F11">
-        <v>1.02890484498221</v>
+        <v>1.027559026177461</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.045720916989224</v>
+        <v>1.045348736137957</v>
       </c>
       <c r="J11">
-        <v>1.030871092470351</v>
+        <v>1.028900710009939</v>
       </c>
       <c r="K11">
-        <v>1.038529910544063</v>
+        <v>1.037014765984805</v>
       </c>
       <c r="L11">
-        <v>1.032898357578768</v>
+        <v>1.031488497591144</v>
       </c>
       <c r="M11">
-        <v>1.043301496551537</v>
+        <v>1.041979284159994</v>
       </c>
       <c r="N11">
-        <v>1.032335047664226</v>
+        <v>1.026652306086892</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.043327560763407</v>
+        <v>1.042281706969227</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.038383508642574</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.037327827307535</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021905204065036</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.000951579526439</v>
+        <v>0.9990630895111322</v>
       </c>
       <c r="D12">
-        <v>1.023824609781758</v>
+        <v>1.022410413336161</v>
       </c>
       <c r="E12">
-        <v>1.018048695668436</v>
+        <v>1.016750819516056</v>
       </c>
       <c r="F12">
-        <v>1.028843248044498</v>
+        <v>1.027617706393145</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.045789287761364</v>
+        <v>1.045464213741176</v>
       </c>
       <c r="J12">
-        <v>1.030715721326417</v>
+        <v>1.028907154068612</v>
       </c>
       <c r="K12">
-        <v>1.038509172278491</v>
+        <v>1.037120501357751</v>
       </c>
       <c r="L12">
-        <v>1.032838092003674</v>
+        <v>1.031563985987746</v>
       </c>
       <c r="M12">
-        <v>1.0434379617565</v>
+        <v>1.042234255854762</v>
       </c>
       <c r="N12">
-        <v>1.032179455875446</v>
+        <v>1.026848062579394</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.04376021430953</v>
+        <v>1.042808416969904</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.038368846144667</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.037402583626077</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022016206368083</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.002016909840964</v>
+        <v>0.9997845502383444</v>
       </c>
       <c r="D13">
-        <v>1.024698525930246</v>
+        <v>1.02300455734508</v>
       </c>
       <c r="E13">
-        <v>1.01906240663822</v>
+        <v>1.01745580723385</v>
       </c>
       <c r="F13">
-        <v>1.029895360001808</v>
+        <v>1.028413651207032</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.04620332544766</v>
+        <v>1.045733395231224</v>
       </c>
       <c r="J13">
-        <v>1.031643845263048</v>
+        <v>1.029505376680666</v>
       </c>
       <c r="K13">
-        <v>1.03932486164935</v>
+        <v>1.037661309528749</v>
       </c>
       <c r="L13">
-        <v>1.03379045242017</v>
+        <v>1.032213114544217</v>
       </c>
       <c r="M13">
-        <v>1.044429192453193</v>
+        <v>1.042973734342496</v>
       </c>
       <c r="N13">
-        <v>1.033108897854524</v>
+        <v>1.027140721801881</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.044819285310836</v>
+        <v>1.043668708446652</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.038943079928363</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.037782217507216</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022199680435016</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.003520904428522</v>
+        <v>1.000826294354782</v>
       </c>
       <c r="D14">
-        <v>1.025807096586485</v>
+        <v>1.023741425783722</v>
       </c>
       <c r="E14">
-        <v>1.020349816106457</v>
+        <v>1.018335023192715</v>
       </c>
       <c r="F14">
-        <v>1.031135360897088</v>
+        <v>1.029312256886826</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.046649356113887</v>
+        <v>1.045996698816668</v>
       </c>
       <c r="J14">
-        <v>1.03278338554006</v>
+        <v>1.030200343861388</v>
       </c>
       <c r="K14">
-        <v>1.040274557833558</v>
+        <v>1.038245485555846</v>
       </c>
       <c r="L14">
-        <v>1.034914384195337</v>
+        <v>1.032935784403827</v>
       </c>
       <c r="M14">
-        <v>1.045509295169345</v>
+        <v>1.043718050904903</v>
       </c>
       <c r="N14">
-        <v>1.034250056409437</v>
+        <v>1.027395353002134</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.045845620836462</v>
+        <v>1.044429785883129</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.039615956568682</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.038196794803508</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022365005809545</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.004261598792554</v>
+        <v>1.001348870911414</v>
       </c>
       <c r="D15">
-        <v>1.026326486580439</v>
+        <v>1.024086826983529</v>
       </c>
       <c r="E15">
-        <v>1.020953417407511</v>
+        <v>1.018747987217356</v>
       </c>
       <c r="F15">
-        <v>1.031695213245748</v>
+        <v>1.029712019837705</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.046838714960803</v>
+        <v>1.046103076216634</v>
       </c>
       <c r="J15">
-        <v>1.033308135837751</v>
+        <v>1.030514892805615</v>
       </c>
       <c r="K15">
-        <v>1.040699165876298</v>
+        <v>1.038498873943547</v>
       </c>
       <c r="L15">
-        <v>1.035420918090072</v>
+        <v>1.03325478425118</v>
       </c>
       <c r="M15">
-        <v>1.045974423945188</v>
+        <v>1.044025610650092</v>
       </c>
       <c r="N15">
-        <v>1.03477555191274</v>
+        <v>1.027491885660931</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.046250634157217</v>
+        <v>1.044710293639323</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.039922000440566</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.038382358275444</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022427545070631</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.007806922581989</v>
+        <v>1.00393858304958</v>
       </c>
       <c r="D16">
-        <v>1.028672253537189</v>
+        <v>1.025677158994748</v>
       </c>
       <c r="E16">
-        <v>1.023700637776747</v>
+        <v>1.020671146329556</v>
       </c>
       <c r="F16">
-        <v>1.034148664735504</v>
+        <v>1.031469807465094</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.047585576669763</v>
+        <v>1.046503635652981</v>
       </c>
       <c r="J16">
-        <v>1.035638378904657</v>
+        <v>1.031920514397377</v>
       </c>
       <c r="K16">
-        <v>1.042507209061835</v>
+        <v>1.039562417271148</v>
       </c>
       <c r="L16">
-        <v>1.037619299883059</v>
+        <v>1.034641332165347</v>
       </c>
       <c r="M16">
-        <v>1.047892613210947</v>
+        <v>1.045258117734112</v>
       </c>
       <c r="N16">
-        <v>1.037109104192084</v>
+        <v>1.027877533160819</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.047728250340329</v>
+        <v>1.045645887095368</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.041203473634055</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.039137759197029</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022638444479356</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.009738334764166</v>
+        <v>1.005422586736575</v>
       </c>
       <c r="D17">
-        <v>1.029891460987106</v>
+        <v>1.026545224668027</v>
       </c>
       <c r="E17">
-        <v>1.025134051952347</v>
+        <v>1.021724371758464</v>
       </c>
       <c r="F17">
-        <v>1.035377653262657</v>
+        <v>1.032375739568223</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.047922296789029</v>
+        <v>1.046686184233605</v>
       </c>
       <c r="J17">
-        <v>1.036827359273191</v>
+        <v>1.032673966063182</v>
       </c>
       <c r="K17">
-        <v>1.043394925934661</v>
+        <v>1.040103295690321</v>
       </c>
       <c r="L17">
-        <v>1.038715288868258</v>
+        <v>1.035361922199961</v>
       </c>
       <c r="M17">
-        <v>1.048792570412133</v>
+        <v>1.045838958314093</v>
       </c>
       <c r="N17">
-        <v>1.038299773049119</v>
+        <v>1.028113169884433</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.048311288780755</v>
+        <v>1.045976457474662</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.041833678462906</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.039522996637534</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022723447986878</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.010438849068108</v>
+        <v>1.006012482969792</v>
       </c>
       <c r="D18">
-        <v>1.030224936133929</v>
+        <v>1.026794810346005</v>
       </c>
       <c r="E18">
-        <v>1.025536182155685</v>
+        <v>1.022038782546227</v>
       </c>
       <c r="F18">
-        <v>1.035621150309994</v>
+        <v>1.032541487652689</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.047922896603558</v>
+        <v>1.04665918688427</v>
       </c>
       <c r="J18">
-        <v>1.037113208298036</v>
+        <v>1.032850254585025</v>
       </c>
       <c r="K18">
-        <v>1.043541574741576</v>
+        <v>1.040166521653486</v>
       </c>
       <c r="L18">
-        <v>1.038928220089147</v>
+        <v>1.035487640627302</v>
       </c>
       <c r="M18">
-        <v>1.04885209477018</v>
+        <v>1.045821197873496</v>
       </c>
       <c r="N18">
-        <v>1.038586028012367</v>
+        <v>1.028130208096236</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.048122175152608</v>
+        <v>1.045725755796858</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.041925812857236</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.039554990067608</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022678964434359</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.010082942765298</v>
+        <v>1.005799261852781</v>
       </c>
       <c r="D19">
-        <v>1.029814342433554</v>
+        <v>1.026501596017944</v>
       </c>
       <c r="E19">
-        <v>1.025058281565693</v>
+        <v>1.021691507412147</v>
       </c>
       <c r="F19">
-        <v>1.03501797326223</v>
+        <v>1.032044347849636</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.047653209371721</v>
+        <v>1.046455485338679</v>
       </c>
       <c r="J19">
-        <v>1.036637933124524</v>
+        <v>1.032511598879457</v>
       </c>
       <c r="K19">
-        <v>1.043075654409071</v>
+        <v>1.03981585929127</v>
       </c>
       <c r="L19">
-        <v>1.038395752279221</v>
+        <v>1.035083440730344</v>
       </c>
       <c r="M19">
-        <v>1.048196985565471</v>
+        <v>1.045270260333559</v>
       </c>
       <c r="N19">
-        <v>1.038110077893593</v>
+        <v>1.027917315281402</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.047280985927078</v>
+        <v>1.044966184208782</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.041602746788036</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.039314054630582</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022526536200534</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.006726638479226</v>
+        <v>1.003300038009064</v>
       </c>
       <c r="D20">
-        <v>1.027279663862315</v>
+        <v>1.024652662419458</v>
       </c>
       <c r="E20">
-        <v>1.022087899709652</v>
+        <v>1.019469635889554</v>
       </c>
       <c r="F20">
-        <v>1.03204520028904</v>
+        <v>1.029697734503273</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.046607380237742</v>
+        <v>1.045742352225908</v>
       </c>
       <c r="J20">
-        <v>1.034000699642047</v>
+        <v>1.030704338764575</v>
       </c>
       <c r="K20">
-        <v>1.040859214130371</v>
+        <v>1.038275446530313</v>
       </c>
       <c r="L20">
-        <v>1.035753169467201</v>
+        <v>1.033178561713302</v>
       </c>
       <c r="M20">
-        <v>1.045547043203953</v>
+        <v>1.043237739947365</v>
       </c>
       <c r="N20">
-        <v>1.035469099237077</v>
+        <v>1.027026537059497</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.044660391744141</v>
+        <v>1.042832830737768</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.040039570395871</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.038229245611172</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022061671947454</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9998401378082674</v>
+        <v>0.9984404598298715</v>
       </c>
       <c r="D21">
-        <v>1.022625392313906</v>
+        <v>1.02161529899842</v>
       </c>
       <c r="E21">
-        <v>1.016644088605705</v>
+        <v>1.015798884250363</v>
       </c>
       <c r="F21">
-        <v>1.027123651814606</v>
+        <v>1.0262680983812</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.045044216296205</v>
+        <v>1.044946935049605</v>
       </c>
       <c r="J21">
-        <v>1.029344544315266</v>
+        <v>1.028003529796533</v>
       </c>
       <c r="K21">
-        <v>1.037190434204453</v>
+        <v>1.036198416835956</v>
       </c>
       <c r="L21">
-        <v>1.031316848714396</v>
+        <v>1.030486998873877</v>
       </c>
       <c r="M21">
-        <v>1.041608755751472</v>
+        <v>1.040768336237393</v>
       </c>
       <c r="N21">
-        <v>1.030806331635663</v>
+        <v>1.026319892475303</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.041502929016393</v>
+        <v>1.040837793937269</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.037448868007601</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.036764276994108</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021632469110223</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9954372751923852</v>
+        <v>0.9953387802031655</v>
       </c>
       <c r="D22">
-        <v>1.019661594201056</v>
+        <v>1.019696508479061</v>
       </c>
       <c r="E22">
-        <v>1.013185111887678</v>
+        <v>1.01348154080596</v>
       </c>
       <c r="F22">
-        <v>1.024014952576077</v>
+        <v>1.024121943005081</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.044041224033577</v>
+        <v>1.044442456167171</v>
       </c>
       <c r="J22">
-        <v>1.026379045319334</v>
+        <v>1.026284930930205</v>
       </c>
       <c r="K22">
-        <v>1.034853360868442</v>
+        <v>1.034887617919314</v>
       </c>
       <c r="L22">
-        <v>1.028499817477195</v>
+        <v>1.028790574570414</v>
       </c>
       <c r="M22">
-        <v>1.039125222390602</v>
+        <v>1.039230221290297</v>
       </c>
       <c r="N22">
-        <v>1.02783662129101</v>
+        <v>1.025828107813408</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.039537378930705</v>
+        <v>1.039620478626209</v>
       </c>
       <c r="Q22">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.035783016159574</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.035822731850869</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021365940082037</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9977586354076019</v>
+        <v>0.9969000905275083</v>
       </c>
       <c r="D23">
-        <v>1.021215867977343</v>
+        <v>1.020637659221955</v>
       </c>
       <c r="E23">
-        <v>1.015004004774815</v>
+        <v>1.01462911361504</v>
       </c>
       <c r="F23">
-        <v>1.025649950100593</v>
+        <v>1.025191513371458</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.044563594917559</v>
+        <v>1.044669242778322</v>
       </c>
       <c r="J23">
-        <v>1.02793582920232</v>
+        <v>1.027114298304633</v>
       </c>
       <c r="K23">
-        <v>1.03607507373168</v>
+        <v>1.035507464456525</v>
       </c>
       <c r="L23">
-        <v>1.029977908376744</v>
+        <v>1.029609997960436</v>
       </c>
       <c r="M23">
-        <v>1.040428388733039</v>
+        <v>1.039978260340867</v>
       </c>
       <c r="N23">
-        <v>1.029395615985675</v>
+        <v>1.025973444627858</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.040568748356234</v>
+        <v>1.040212501859985</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.036637203013959</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.036250433303313</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021477411129377</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.006697255414987</v>
+        <v>1.003284535765139</v>
       </c>
       <c r="D24">
-        <v>1.027226144829676</v>
+        <v>1.024610271322912</v>
       </c>
       <c r="E24">
-        <v>1.022032981665344</v>
+        <v>1.019427753402534</v>
       </c>
       <c r="F24">
-        <v>1.031972684031652</v>
+        <v>1.029635499189097</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.046565361967369</v>
+        <v>1.045707445423828</v>
       </c>
       <c r="J24">
-        <v>1.0339399152194</v>
+        <v>1.030656733794209</v>
       </c>
       <c r="K24">
-        <v>1.040791433204402</v>
+        <v>1.0382185604791</v>
       </c>
       <c r="L24">
-        <v>1.035683914523027</v>
+        <v>1.033122074601979</v>
       </c>
       <c r="M24">
-        <v>1.045460661613269</v>
+        <v>1.043161429979628</v>
       </c>
       <c r="N24">
-        <v>1.035408228493577</v>
+        <v>1.026991946606089</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.044551443609758</v>
+        <v>1.042731763815395</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.039964393804079</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.038159053216515</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022034812604842</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.016613681931517</v>
+        <v>1.011408005858614</v>
       </c>
       <c r="D25">
-        <v>1.033915228571272</v>
+        <v>1.029873302776132</v>
       </c>
       <c r="E25">
-        <v>1.029865035482929</v>
+        <v>1.025740203041283</v>
       </c>
       <c r="F25">
-        <v>1.039027923912543</v>
+        <v>1.035396660158633</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.048738548554525</v>
+        <v>1.047246953999114</v>
       </c>
       <c r="J25">
-        <v>1.040594579599587</v>
+        <v>1.035557451319411</v>
       </c>
       <c r="K25">
-        <v>1.046008917310147</v>
+        <v>1.042024921375395</v>
       </c>
       <c r="L25">
-        <v>1.04201677316132</v>
+        <v>1.037951656925336</v>
       </c>
       <c r="M25">
-        <v>1.051049152114399</v>
+        <v>1.047469259926028</v>
       </c>
       <c r="N25">
-        <v>1.042072343260485</v>
+        <v>1.029644310916014</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.048974321166261</v>
+        <v>1.046141103908127</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.043650523363149</v>
+        <v>1.040847145382361</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022945286642309</v>
       </c>
     </row>
   </sheetData>
